--- a/data/행정구역_20220816144025.xlsx
+++ b/data/행정구역_20220816144025.xlsx
@@ -1482,7 +1482,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1505,6 +1505,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE2ECF8"/>
         <bgColor rgb="FFF0EBD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1556,7 +1562,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1574,6 +1580,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1665,7 +1679,7 @@
   <dimension ref="A1:D455"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1733,16 +1747,16 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="6" t="n">
         <v>23.91</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="6" t="n">
         <v>17</v>
       </c>
     </row>
@@ -8033,7 +8047,7 @@
       </c>
     </row>
     <row r="455" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A455" s="5" t="s">
+      <c r="A455" s="7" t="s">
         <v>457</v>
       </c>
       <c r="B455" s="4" t="n">
@@ -8076,75 +8090,75 @@
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>474</v>
       </c>
     </row>
